--- a/TestData/T2366_Contact_AddActivityWithoutExternalContact.xlsx
+++ b/TestData/T2366_Contact_AddActivityWithoutExternalContact.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgandhi1012\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94065CFD-6B4D-4270-8C90-D40730CDDA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="2952"/>
+    <workbookView xWindow="3624" yWindow="1500" windowWidth="19416" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -91,13 +92,13 @@
     <t>Conference 01</t>
   </si>
   <si>
-    <t>Nicole Bicho</t>
+    <t>Drew Koecher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -450,7 +451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -516,7 +517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/TestData/T2366_Contact_AddActivityWithoutExternalContact.xlsx
+++ b/TestData/T2366_Contact_AddActivityWithoutExternalContact.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94065CFD-6B4D-4270-8C90-D40730CDDA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10F483-265E-489A-923A-66769444D8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="1500" windowWidth="19416" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>Conference 01</t>
   </si>
   <si>
-    <t>Drew Koecher</t>
+    <t>Ayati Arvind</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/T2366_Contact_AddActivityWithoutExternalContact.xlsx
+++ b/TestData/T2366_Contact_AddActivityWithoutExternalContact.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E10F483-265E-489A-923A-66769444D8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C0291-A444-4A4D-8538-6530EE2A5937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1500" windowWidth="19416" windowHeight="10740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Activity" sheetId="2" r:id="rId2"/>
-    <sheet name="Contact" sheetId="3" r:id="rId3"/>
+    <sheet name="Validations" sheetId="4" r:id="rId3"/>
+    <sheet name="Contact" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>ActivityType</t>
   </si>
@@ -35,64 +36,97 @@
     <t>ActivitySubject</t>
   </si>
   <si>
-    <t>Activity Heading</t>
-  </si>
-  <si>
-    <t>Activity Details</t>
-  </si>
-  <si>
     <t>CompanyName</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Techno</t>
-  </si>
-  <si>
     <t>Meeting</t>
   </si>
   <si>
-    <t>StdUser</t>
-  </si>
-  <si>
-    <t>SFStandard User</t>
-  </si>
-  <si>
-    <t>Please mark the "No External Contact" checkbox if you wish not to include an primary external attendee on this activity</t>
-  </si>
-  <si>
-    <t>No External Contact Error</t>
-  </si>
-  <si>
-    <t>If no external attendee is entered, then Companies Discussed is required to create an activity</t>
-  </si>
-  <si>
-    <t>Companies Discussed Error</t>
-  </si>
-  <si>
-    <t>Lookup Company</t>
-  </si>
-  <si>
-    <t>ActivityCompany</t>
-  </si>
-  <si>
-    <t>StandardContact</t>
-  </si>
-  <si>
-    <t>SFStandard</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>Conference 01</t>
   </si>
   <si>
-    <t>Ayati Arvind</t>
+    <t>CF Financial User</t>
+  </si>
+  <si>
+    <t>Thomas Bailey</t>
+  </si>
+  <si>
+    <t>TabName</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>StandardTestCompany</t>
+  </si>
+  <si>
+    <t>Test External</t>
+  </si>
+  <si>
+    <t>ExtContactName</t>
+  </si>
+  <si>
+    <t>Please enter a company or external attendee.</t>
+  </si>
+  <si>
+    <t>Msg2</t>
+  </si>
+  <si>
+    <t>Msg1</t>
+  </si>
+  <si>
+    <t>Please select a primary HL Attendee</t>
+  </si>
+  <si>
+    <t>IndustryGroup</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>MeetingNotes</t>
+  </si>
+  <si>
+    <t>CompanyDiscussed</t>
+  </si>
+  <si>
+    <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Activist Advisory</t>
+  </si>
+  <si>
+    <t>Related Campaign Meeting Description</t>
+  </si>
+  <si>
+    <t>Meeting Notes 1</t>
+  </si>
+  <si>
+    <t>SubjectMsg</t>
+  </si>
+  <si>
+    <t>DateValidation</t>
+  </si>
+  <si>
+    <t>Msg3</t>
+  </si>
+  <si>
+    <t>Msg4</t>
+  </si>
+  <si>
+    <t>Complete this field.</t>
+  </si>
+  <si>
+    <t>Complete this field with format MMM d, yyyy.</t>
+  </si>
+  <si>
+    <t>Please change the start/end dates to be on the same day.</t>
+  </si>
+  <si>
+    <t>Please ensure the end time is after the start time.</t>
   </si>
 </sst>
 </file>
@@ -136,11 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,12 +473,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -452,62 +489,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -517,47 +575,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FB37FA-91F9-4909-BC82-FE4DCAE27EE6}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
